--- a/Excel-XLSX/UN-TOG.xlsx
+++ b/Excel-XLSX/UN-TOG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>NKb2bE</t>
+    <t>qCe5i4</t>
   </si>
   <si>
     <t>1961</t>
@@ -2004,21 +2004,27 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
     <t>448</t>
   </si>
   <si>
     <t>449</t>
   </si>
   <si>
-    <t>19766</t>
-  </si>
-  <si>
-    <t>10235</t>
-  </si>
-  <si>
     <t>450</t>
   </si>
   <si>
+    <t>38535</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
     <t>451</t>
   </si>
   <si>
@@ -2062,6 +2068,15 @@
   </si>
   <si>
     <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2461,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V467"/>
+  <dimension ref="A1:V470"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -32867,16 +32882,16 @@
         <v>661</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>154</v>
+        <v>662</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>155</v>
+        <v>663</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>155</v>
+        <v>663</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>28</v>
@@ -32891,10 +32906,10 @@
         <v>31</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P448" s="2" t="s">
         <v>33</v>
@@ -32929,22 +32944,22 @@
         <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>28</v>
@@ -32959,10 +32974,10 @@
         <v>31</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>33</v>
@@ -32997,40 +33012,40 @@
         <v>22</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F450" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N450" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G450" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I450" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K450" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L450" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M450" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N450" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="O450" s="2" t="s">
-        <v>665</v>
+        <v>41</v>
       </c>
       <c r="P450" s="2" t="s">
         <v>33</v>
@@ -33071,16 +33086,16 @@
         <v>661</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>220</v>
+        <v>479</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>221</v>
+        <v>480</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>28</v>
@@ -33095,10 +33110,10 @@
         <v>31</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>271</v>
+        <v>667</v>
       </c>
       <c r="O451" s="2" t="s">
-        <v>205</v>
+        <v>668</v>
       </c>
       <c r="P451" s="2" t="s">
         <v>33</v>
@@ -33133,22 +33148,22 @@
         <v>22</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>28</v>
@@ -33163,13 +33178,13 @@
         <v>31</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="O452" s="2" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="P452" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q452" s="2" t="s">
         <v>33</v>
@@ -33201,22 +33216,22 @@
         <v>22</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>28</v>
@@ -33231,10 +33246,10 @@
         <v>31</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="O453" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P453" s="2" t="s">
         <v>33</v>
@@ -33269,22 +33284,22 @@
         <v>22</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>28</v>
@@ -33299,10 +33314,10 @@
         <v>31</v>
       </c>
       <c r="N454" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="P454" s="2" t="s">
         <v>33</v>
@@ -33337,22 +33352,22 @@
         <v>22</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>28</v>
@@ -33367,10 +33382,10 @@
         <v>31</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="P455" s="2" t="s">
         <v>33</v>
@@ -33405,22 +33420,22 @@
         <v>22</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>596</v>
+        <v>224</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>597</v>
+        <v>225</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>28</v>
@@ -33435,10 +33450,10 @@
         <v>31</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="O456" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="P456" s="2" t="s">
         <v>33</v>
@@ -33473,22 +33488,22 @@
         <v>22</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>26</v>
+        <v>596</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>27</v>
+        <v>597</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>27</v>
+        <v>598</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>28</v>
@@ -33503,7 +33518,7 @@
         <v>31</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>649</v>
+        <v>41</v>
       </c>
       <c r="O457" s="2" t="s">
         <v>33</v>
@@ -33541,22 +33556,22 @@
         <v>22</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>28</v>
@@ -33571,10 +33586,10 @@
         <v>31</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>128</v>
+        <v>649</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>33</v>
@@ -33609,22 +33624,22 @@
         <v>22</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>28</v>
@@ -33639,7 +33654,7 @@
         <v>31</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="O459" s="2" t="s">
         <v>33</v>
@@ -33677,22 +33692,22 @@
         <v>22</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>28</v>
@@ -33707,10 +33722,10 @@
         <v>31</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="P460" s="2" t="s">
         <v>33</v>
@@ -33751,16 +33766,16 @@
         <v>661</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>415</v>
+        <v>297</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>28</v>
@@ -33775,10 +33790,10 @@
         <v>31</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="P461" s="2" t="s">
         <v>33</v>
@@ -33813,22 +33828,22 @@
         <v>22</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>145</v>
+        <v>415</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>28</v>
@@ -33843,10 +33858,10 @@
         <v>31</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="P462" s="2" t="s">
         <v>33</v>
@@ -33881,22 +33896,22 @@
         <v>22</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>28</v>
@@ -33911,10 +33926,10 @@
         <v>31</v>
       </c>
       <c r="N463" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="P463" s="2" t="s">
         <v>33</v>
@@ -33949,22 +33964,22 @@
         <v>22</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>28</v>
@@ -33979,13 +33994,13 @@
         <v>31</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P464" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q464" s="2" t="s">
         <v>33</v>
@@ -34017,22 +34032,22 @@
         <v>22</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>28</v>
@@ -34047,13 +34062,13 @@
         <v>31</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="O465" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P465" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P465" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="Q465" s="2" t="s">
         <v>33</v>
@@ -34085,22 +34100,22 @@
         <v>22</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>422</v>
+        <v>245</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>28</v>
@@ -34115,10 +34130,10 @@
         <v>31</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="P466" s="2" t="s">
         <v>33</v>
@@ -34153,22 +34168,22 @@
         <v>22</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>661</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>28</v>
+        <v>326</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>29</v>
+        <v>497</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>30</v>
+        <v>498</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>31</v>
+        <v>499</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>28</v>
@@ -34186,27 +34201,231 @@
         <v>33</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P467" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q467" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R467" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S467" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T467" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V467" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J468" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N468" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O468" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P468" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q468" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R468" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S468" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T468" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V468" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q469" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="R467" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S467" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T467" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U467" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V467" s="2" t="s">
+      <c r="R469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T469" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V469" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N470" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V470" s="2" t="s">
         <v>33</v>
       </c>
     </row>
